--- a/ref/ingestion/calibrated/costa_rica/model_input_variables_costa_rica_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/costa_rica/model_input_variables_costa_rica_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="K114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="L114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="M114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="N114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="O114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="P114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="Q114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="R114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="S114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="T114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="U114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="V114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="W114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="X114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="Y114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="Z114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AA114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AB114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AC114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AD114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AE114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AF114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AG114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AH114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AI114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AJ114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AK114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AL114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AM114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AN114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AO114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AP114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AQ114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AR114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AS114" t="n">
-        <v>353574483.6</v>
+        <v>9352.117878999999</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/costa_rica/model_input_variables_costa_rica_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/costa_rica/model_input_variables_costa_rica_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="K100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="L100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="M100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="N100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="O100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="P100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="Q100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="R100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="S100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="T100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="U100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="V100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="W100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="X100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="Y100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="Z100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AA100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AB100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AC100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AD100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AE100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AF100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AG100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AH100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AI100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AK100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AL100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AM100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AN100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AO100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AP100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AR100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
       <c r="AS100" t="n">
-        <v>1445168.921</v>
+        <v>188075.5791</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="K101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="L101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="M101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="N101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="O101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="P101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="Q101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="R101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="S101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="T101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="U101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="V101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="W101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="X101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="Y101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="Z101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AA101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AB101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AC101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AD101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AE101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AF101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AG101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AH101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AI101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AJ101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AK101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AL101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AM101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AN101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AO101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AP101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AQ101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AR101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
       <c r="AS101" t="n">
-        <v>3419969.9</v>
+        <v>341996.99</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="K103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="L103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="M103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="N103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="O103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="P103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="Q103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="R103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="S103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="T103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="U103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="V103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="W103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="X103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="Y103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="Z103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AA103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AB103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AC103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AD103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AE103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AF103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AG103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AH103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AI103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AK103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AL103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AM103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AN103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AO103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AP103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AR103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
       <c r="AS103" t="n">
-        <v>1105364.974</v>
+        <v>1100083.853</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="K105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="L105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="M105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="N105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="O105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="P105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="Q105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="R105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="S105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="T105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="U105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="V105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="W105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="X105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="Y105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="Z105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AA105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AB105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AC105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AD105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AE105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AF105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AG105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AH105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AI105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AJ105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AK105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AL105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AM105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AN105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AO105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AP105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AQ105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AR105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
       <c r="AS105" t="n">
-        <v>787455.1727999999</v>
+        <v>204738.3449</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="K106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="L106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="M106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="N106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="O106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="P106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="Q106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="R106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="S106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="T106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="U106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="V106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="W106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="X106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="Y106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="Z106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AA106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AB106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AC106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AD106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AE106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AF106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AG106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AH106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AI106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AJ106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AK106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AL106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AM106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AN106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AO106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AP106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AR106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
       <c r="AS106" t="n">
-        <v>2169020.754</v>
+        <v>189951.8325</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="K107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="L107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="M107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="N107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="O107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="P107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="Q107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="R107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="S107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="T107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="U107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="V107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="W107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="X107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="Y107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="Z107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AA107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AB107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AC107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AD107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AE107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AF107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AG107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AH107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AI107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AJ107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AK107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AL107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AM107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AN107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AO107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AP107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AQ107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AR107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
       <c r="AS107" t="n">
-        <v>505945.0779</v>
+        <v>1011890.156</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="K115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="L115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="M115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="N115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="O115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="P115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="Q115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="R115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="S115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="T115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="U115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="V115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="W115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="X115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="Y115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="Z115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AA115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AB115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AC115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AD115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AE115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AF115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AG115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AH115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AI115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AJ115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AK115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AL115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AM115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AN115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AO115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AP115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AQ115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AR115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>72614.64397999999</v>
+        <v>726146.4398000001</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/costa_rica/model_input_variables_costa_rica_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/costa_rica/model_input_variables_costa_rica_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="K100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="L100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="M100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="N100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="O100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="P100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="Q100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="R100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="S100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="T100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="U100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="V100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="W100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="X100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="Y100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="Z100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AA100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AB100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AC100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AD100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AE100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AF100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AG100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AH100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AI100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AJ100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AK100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AL100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AM100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AN100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AO100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AP100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AQ100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AR100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
       <c r="AS100">
-        <v>4541190.8</v>
+        <v>188075.5791</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="K101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="L101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="M101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="N101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="O101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="P101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="Q101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="R101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="S101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="T101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="U101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="V101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="W101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="X101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="Y101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="Z101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AA101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AB101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AC101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AD101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AE101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AF101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AG101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AH101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AI101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AJ101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AK101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AL101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AM101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AN101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AO101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AP101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AQ101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AR101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
       <c r="AS101">
-        <v>177589.058</v>
+        <v>341996.99</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="K102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="L102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="M102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="N102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="O102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="P102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="Q102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="R102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="S102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="T102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="U102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="V102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="W102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="X102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="Y102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="Z102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AA102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AB102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AC102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AD102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AE102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AF102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AG102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AH102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AI102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AJ102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AK102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AL102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AM102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AN102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AO102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AP102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AQ102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AR102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
       <c r="AS102">
-        <v>341278.4565</v>
+        <v>1726834.841</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="K103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="L103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="M103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="N103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="O103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="P103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="Q103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="R103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="S103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="T103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="U103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="V103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="W103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="X103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="Y103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="Z103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AA103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AB103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AC103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AD103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AE103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AF103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AG103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AH103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AI103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AJ103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AK103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AL103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AM103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AN103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AO103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AP103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AQ103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AR103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
       <c r="AS103">
-        <v>27148.52735</v>
+        <v>1100083.853</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="K104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="L104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="M104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="N104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="O104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="P104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="Q104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="R104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="S104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="T104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="U104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="V104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="W104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="X104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="Y104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="Z104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AA104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AB104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AC104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AD104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AE104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AF104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AG104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AH104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AI104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AJ104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AK104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AL104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AM104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AN104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AO104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AP104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AQ104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AR104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
       <c r="AS104">
-        <v>45577.69667</v>
+        <v>144673.5224</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="K105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="L105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="M105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="N105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="O105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="P105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="Q105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="R105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="S105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="T105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="U105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="V105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="W105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="X105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="Y105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="Z105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AA105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AB105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AC105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AD105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AE105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AF105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AG105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AH105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AI105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AJ105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AK105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AL105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AM105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AN105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AO105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AP105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AQ105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AR105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
       <c r="AS105">
-        <v>1035318.004</v>
+        <v>204738.3449</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="K106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="L106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="M106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="N106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="O106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="P106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="Q106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="R106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="S106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="T106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="U106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="V106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="W106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="X106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="Y106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="Z106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AA106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AB106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AC106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AD106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AE106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AF106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AG106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AH106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AI106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AJ106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AK106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AL106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AM106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AN106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AO106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AP106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AQ106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AR106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
       <c r="AS106">
-        <v>778032.3353</v>
+        <v>189951.8325</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="K107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="L107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="M107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="N107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="O107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="P107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="Q107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="R107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="S107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="T107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="U107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="V107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="W107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="X107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="Y107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="Z107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AA107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AB107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AC107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AD107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AE107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AF107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AG107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AH107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AI107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AJ107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AK107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AL107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AM107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AN107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AO107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AP107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AQ107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AR107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
       <c r="AS107">
-        <v>379341.7065</v>
+        <v>1011890.156</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="K114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="L114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="M114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="N114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="O114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="P114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="Q114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="R114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="S114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="T114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="U114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="V114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="W114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="X114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="Y114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="Z114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AA114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AB114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AC114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AD114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AE114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AF114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AG114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AH114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AI114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AJ114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AK114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AL114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AM114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AN114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AO114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AP114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AQ114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AR114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
       <c r="AS114">
-        <v>12685.94197</v>
+        <v>9352.117878999999</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="K115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="L115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="M115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="N115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="O115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="P115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="Q115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="R115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="S115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="T115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="U115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="V115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="W115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="X115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="Y115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="Z115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AA115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AB115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AC115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AD115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AE115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AF115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AG115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AH115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AI115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AJ115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AK115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AL115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AM115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AN115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AO115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AP115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AQ115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AR115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
       <c r="AS115">
-        <v>33385.15626</v>
+        <v>726146.4398000001</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/costa_rica/model_input_variables_costa_rica_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/costa_rica/model_input_variables_costa_rica_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0.971349064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.952556097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.006288442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.980250708</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.982591585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.033190518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>1.053885765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.029446921</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.001688949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.021971433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.038295508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>0.991983837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.016872406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>4541190.8</v>
+        <v>4497955.98621076</v>
       </c>
       <c r="K96">
-        <v>4541190.8</v>
+        <v>6349316.81667575</v>
       </c>
       <c r="L96">
-        <v>4541190.8</v>
+        <v>6444216.92362503</v>
       </c>
       <c r="M96">
-        <v>4541190.8</v>
+        <v>5259717.40745011</v>
       </c>
       <c r="N96">
-        <v>4541190.8</v>
+        <v>5167069.16776774</v>
       </c>
       <c r="O96">
-        <v>4541190.8</v>
+        <v>4541190.79984833</v>
       </c>
       <c r="P96">
-        <v>4541190.8</v>
+        <v>4541191</v>
       </c>
       <c r="Q96">
-        <v>4541190.8</v>
+        <v>4854451.97841785</v>
       </c>
       <c r="R96">
-        <v>4541190.8</v>
+        <v>5189322.3629583</v>
       </c>
       <c r="S96">
-        <v>4541190.8</v>
+        <v>5547292.81624818</v>
       </c>
       <c r="T96">
-        <v>4541190.8</v>
+        <v>5929956.82998119</v>
       </c>
       <c r="U96">
-        <v>4541190.8</v>
+        <v>6339017.81828481</v>
       </c>
       <c r="V96">
-        <v>4541190.8</v>
+        <v>6776296.70040275</v>
       </c>
       <c r="W96">
-        <v>4541190.8</v>
+        <v>7243740.00644687</v>
       </c>
       <c r="X96">
-        <v>4541190.8</v>
+        <v>7743428.54230102</v>
       </c>
       <c r="Y96">
-        <v>4541190.8</v>
+        <v>8277586.65224837</v>
       </c>
       <c r="Z96">
-        <v>4541190.8</v>
+        <v>8848592.120554339</v>
       </c>
       <c r="AA96">
-        <v>4541190.8</v>
+        <v>9458986.756081739</v>
       </c>
       <c r="AB96">
-        <v>4541190.8</v>
+        <v>10111487.7070551</v>
       </c>
       <c r="AC96">
-        <v>4541190.8</v>
+        <v>10808999.5563414</v>
       </c>
       <c r="AD96">
-        <v>4541190.8</v>
+        <v>11554627.2510887</v>
       </c>
       <c r="AE96">
-        <v>4541190.8</v>
+        <v>12351689.9242794</v>
       </c>
       <c r="AF96">
-        <v>4541190.8</v>
+        <v>13203735.6697224</v>
       </c>
       <c r="AG96">
-        <v>4541190.8</v>
+        <v>14114557.3362561</v>
       </c>
       <c r="AH96">
-        <v>4541190.8</v>
+        <v>15088209.4114695</v>
       </c>
       <c r="AI96">
-        <v>4541190.8</v>
+        <v>16129026.0700972</v>
       </c>
       <c r="AJ96">
-        <v>4541190.8</v>
+        <v>17241640.4674316</v>
       </c>
       <c r="AK96">
-        <v>4541190.8</v>
+        <v>18431005.3636354</v>
       </c>
       <c r="AL96">
-        <v>4541190.8</v>
+        <v>19702415.1707624</v>
       </c>
       <c r="AM96">
-        <v>4541190.8</v>
+        <v>21061529.5206296</v>
       </c>
       <c r="AN96">
-        <v>4541190.8</v>
+        <v>22514398.4584498</v>
       </c>
       <c r="AO96">
-        <v>4541190.8</v>
+        <v>24067489.3743755</v>
       </c>
       <c r="AP96">
-        <v>4541190.8</v>
+        <v>25727715.7928366</v>
       </c>
       <c r="AQ96">
-        <v>4541190.8</v>
+        <v>27502468.147829</v>
       </c>
       <c r="AR96">
-        <v>4541190.8</v>
+        <v>29399646.6811465</v>
       </c>
       <c r="AS96">
-        <v>4541190.8</v>
+        <v>31427696.6100033</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>177589.058</v>
+        <v>168315.742466078</v>
       </c>
       <c r="K97">
-        <v>177589.058</v>
+        <v>161357.051248769</v>
       </c>
       <c r="L97">
-        <v>177589.058</v>
+        <v>177195.393132506</v>
       </c>
       <c r="M97">
-        <v>177589.058</v>
+        <v>163841.954758891</v>
       </c>
       <c r="N97">
-        <v>177589.058</v>
+        <v>165493.036178719</v>
       </c>
       <c r="O97">
-        <v>177589.058</v>
+        <v>177589.058037976</v>
       </c>
       <c r="P97">
-        <v>177589.058</v>
+        <v>177589.1</v>
       </c>
       <c r="Q97">
-        <v>177589.058</v>
+        <v>184731.619678592</v>
       </c>
       <c r="R97">
-        <v>177589.058</v>
+        <v>192161.406916731</v>
       </c>
       <c r="S97">
-        <v>177589.058</v>
+        <v>199890.01543138</v>
       </c>
       <c r="T97">
-        <v>177589.058</v>
+        <v>207929.463622585</v>
       </c>
       <c r="U97">
-        <v>177589.058</v>
+        <v>216292.253262734</v>
       </c>
       <c r="V97">
-        <v>177589.058</v>
+        <v>224991.388937481</v>
       </c>
       <c r="W97">
-        <v>177589.058</v>
+        <v>234040.39826857</v>
       </c>
       <c r="X97">
-        <v>177589.058</v>
+        <v>243453.352950017</v>
       </c>
       <c r="Y97">
-        <v>177589.058</v>
+        <v>253244.890630341</v>
       </c>
       <c r="Z97">
-        <v>177589.058</v>
+        <v>263430.237674895</v>
       </c>
       <c r="AA97">
-        <v>177589.058</v>
+        <v>274025.232843682</v>
       </c>
       <c r="AB97">
-        <v>177589.058</v>
+        <v>285046.351921468</v>
       </c>
       <c r="AC97">
-        <v>177589.058</v>
+        <v>296510.733338515</v>
       </c>
       <c r="AD97">
-        <v>177589.058</v>
+        <v>308436.204821755</v>
       </c>
       <c r="AE97">
-        <v>177589.058</v>
+        <v>320841.31111786</v>
       </c>
       <c r="AF97">
-        <v>177589.058</v>
+        <v>333745.342831319</v>
       </c>
       <c r="AG97">
-        <v>177589.058</v>
+        <v>347168.366422358</v>
       </c>
       <c r="AH97">
-        <v>177589.058</v>
+        <v>361131.255411358</v>
       </c>
       <c r="AI97">
-        <v>177589.058</v>
+        <v>375655.722838302</v>
       </c>
       <c r="AJ97">
-        <v>177589.058</v>
+        <v>390764.355027712</v>
       </c>
       <c r="AK97">
-        <v>177589.058</v>
+        <v>406480.646711593</v>
       </c>
       <c r="AL97">
-        <v>177589.058</v>
+        <v>422829.037564999</v>
       </c>
       <c r="AM97">
-        <v>177589.058</v>
+        <v>439834.950211035</v>
       </c>
       <c r="AN97">
-        <v>177589.058</v>
+        <v>457524.829754402</v>
       </c>
       <c r="AO97">
-        <v>177589.058</v>
+        <v>475926.184904946</v>
       </c>
       <c r="AP97">
-        <v>177589.058</v>
+        <v>495067.630755175</v>
       </c>
       <c r="AQ97">
-        <v>177589.058</v>
+        <v>514978.933278263</v>
       </c>
       <c r="AR97">
-        <v>177589.058</v>
+        <v>535691.055615729</v>
       </c>
       <c r="AS97">
-        <v>177589.058</v>
+        <v>557236.2062267819</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>341278.4565</v>
+        <v>374272.456707285</v>
       </c>
       <c r="K98">
-        <v>341278.4565</v>
+        <v>323395.116624136</v>
       </c>
       <c r="L98">
-        <v>341278.4565</v>
+        <v>274861.383079098</v>
       </c>
       <c r="M98">
-        <v>341278.4565</v>
+        <v>252767.436903689</v>
       </c>
       <c r="N98">
-        <v>341278.4565</v>
+        <v>252721.226218507</v>
       </c>
       <c r="O98">
-        <v>341278.4565</v>
+        <v>341278.456469139</v>
       </c>
       <c r="P98">
-        <v>341278.4565</v>
+        <v>341278.5</v>
       </c>
       <c r="Q98">
-        <v>341278.4565</v>
+        <v>338102.926081881</v>
       </c>
       <c r="R98">
-        <v>341278.4565</v>
+        <v>334956.900669482</v>
       </c>
       <c r="S98">
-        <v>341278.4565</v>
+        <v>331840.148815908</v>
       </c>
       <c r="T98">
-        <v>341278.4565</v>
+        <v>328752.398132626</v>
       </c>
       <c r="U98">
-        <v>341278.4565</v>
+        <v>325693.37876566</v>
       </c>
       <c r="V98">
-        <v>341278.4565</v>
+        <v>322662.823372009</v>
       </c>
       <c r="W98">
-        <v>341278.4565</v>
+        <v>319660.467096279</v>
       </c>
       <c r="X98">
-        <v>341278.4565</v>
+        <v>316686.047547538</v>
       </c>
       <c r="Y98">
-        <v>341278.4565</v>
+        <v>313739.304776388</v>
       </c>
       <c r="Z98">
-        <v>341278.4565</v>
+        <v>310819.981252238</v>
       </c>
       <c r="AA98">
-        <v>341278.4565</v>
+        <v>307927.821840804</v>
       </c>
       <c r="AB98">
-        <v>341278.4565</v>
+        <v>305062.573781812</v>
       </c>
       <c r="AC98">
-        <v>341278.4565</v>
+        <v>302223.986666902</v>
       </c>
       <c r="AD98">
-        <v>341278.4565</v>
+        <v>299411.81241775</v>
       </c>
       <c r="AE98">
-        <v>341278.4565</v>
+        <v>296625.805264382</v>
       </c>
       <c r="AF98">
-        <v>341278.4565</v>
+        <v>293865.7217237</v>
       </c>
       <c r="AG98">
-        <v>341278.4565</v>
+        <v>291131.320578199</v>
       </c>
       <c r="AH98">
-        <v>341278.4565</v>
+        <v>288422.362854886</v>
       </c>
       <c r="AI98">
-        <v>341278.4565</v>
+        <v>285738.611804397</v>
       </c>
       <c r="AJ98">
-        <v>341278.4565</v>
+        <v>283079.832880305</v>
       </c>
       <c r="AK98">
-        <v>341278.4565</v>
+        <v>280445.793718623</v>
       </c>
       <c r="AL98">
-        <v>341278.4565</v>
+        <v>277836.264117494</v>
       </c>
       <c r="AM98">
-        <v>341278.4565</v>
+        <v>275251.016017074</v>
       </c>
       <c r="AN98">
-        <v>341278.4565</v>
+        <v>272689.823479602</v>
       </c>
       <c r="AO98">
-        <v>341278.4565</v>
+        <v>270152.462669653</v>
       </c>
       <c r="AP98">
-        <v>341278.4565</v>
+        <v>267638.711834574</v>
       </c>
       <c r="AQ98">
-        <v>341278.4565</v>
+        <v>265148.351285108</v>
       </c>
       <c r="AR98">
-        <v>341278.4565</v>
+        <v>262681.163376192</v>
       </c>
       <c r="AS98">
-        <v>341278.4565</v>
+        <v>260236.932487933</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>27148.52735</v>
+        <v>30235.2939796777</v>
       </c>
       <c r="K99">
-        <v>27148.52735</v>
+        <v>28050.7280600012</v>
       </c>
       <c r="L99">
-        <v>27148.52735</v>
+        <v>31708.0748548513</v>
       </c>
       <c r="M99">
-        <v>27148.52735</v>
+        <v>36413.1228462395</v>
       </c>
       <c r="N99">
-        <v>27148.52735</v>
+        <v>36638.8406999203</v>
       </c>
       <c r="O99">
-        <v>27148.52735</v>
+        <v>27148.527354939</v>
       </c>
       <c r="P99">
-        <v>27148.52735</v>
+        <v>27148.53</v>
       </c>
       <c r="Q99">
-        <v>27148.52735</v>
+        <v>27489.5996320865</v>
       </c>
       <c r="R99">
-        <v>27148.52735</v>
+        <v>27834.9541552494</v>
       </c>
       <c r="S99">
-        <v>27148.52735</v>
+        <v>28184.6474009933</v>
       </c>
       <c r="T99">
-        <v>27148.52735</v>
+        <v>28538.7338771135</v>
       </c>
       <c r="U99">
-        <v>27148.52735</v>
+        <v>28897.2687761921</v>
       </c>
       <c r="V99">
-        <v>27148.52735</v>
+        <v>29260.3079842009</v>
       </c>
       <c r="W99">
-        <v>27148.52735</v>
+        <v>29627.9080892124</v>
       </c>
       <c r="X99">
-        <v>27148.52735</v>
+        <v>30000.126390221</v>
       </c>
       <c r="Y99">
-        <v>27148.52735</v>
+        <v>30377.0209060737</v>
       </c>
       <c r="Z99">
-        <v>27148.52735</v>
+        <v>30758.650384514</v>
       </c>
       <c r="AA99">
-        <v>27148.52735</v>
+        <v>31145.0743113389</v>
       </c>
       <c r="AB99">
-        <v>27148.52735</v>
+        <v>31536.3529196715</v>
       </c>
       <c r="AC99">
-        <v>27148.52735</v>
+        <v>31932.5471993494</v>
       </c>
       <c r="AD99">
-        <v>27148.52735</v>
+        <v>32333.7189064314</v>
       </c>
       <c r="AE99">
-        <v>27148.52735</v>
+        <v>32739.9305728239</v>
       </c>
       <c r="AF99">
-        <v>27148.52735</v>
+        <v>33151.2455160275</v>
       </c>
       <c r="AG99">
-        <v>27148.52735</v>
+        <v>33567.7278490069</v>
       </c>
       <c r="AH99">
-        <v>27148.52735</v>
+        <v>33989.4424901842</v>
       </c>
       <c r="AI99">
-        <v>27148.52735</v>
+        <v>34416.455173558</v>
       </c>
       <c r="AJ99">
-        <v>27148.52735</v>
+        <v>34848.8324589494</v>
       </c>
       <c r="AK99">
-        <v>27148.52735</v>
+        <v>35286.6417423772</v>
       </c>
       <c r="AL99">
-        <v>27148.52735</v>
+        <v>35729.951266563</v>
       </c>
       <c r="AM99">
-        <v>27148.52735</v>
+        <v>36178.830131568</v>
       </c>
       <c r="AN99">
-        <v>27148.52735</v>
+        <v>36633.3483055647</v>
       </c>
       <c r="AO99">
-        <v>27148.52735</v>
+        <v>37093.5766357423</v>
       </c>
       <c r="AP99">
-        <v>27148.52735</v>
+        <v>37559.5868593503</v>
       </c>
       <c r="AQ99">
-        <v>27148.52735</v>
+        <v>38031.4516148799</v>
       </c>
       <c r="AR99">
-        <v>27148.52735</v>
+        <v>38509.2444533874</v>
       </c>
       <c r="AS99">
-        <v>27148.52735</v>
+        <v>38993.0398499575</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>45577.69667</v>
+        <v>48406.8948342971</v>
       </c>
       <c r="K100">
-        <v>45577.69667</v>
+        <v>18934.015127415</v>
       </c>
       <c r="L100">
-        <v>45577.69667</v>
+        <v>46740.5174651586</v>
       </c>
       <c r="M100">
-        <v>45577.69667</v>
+        <v>32261.4966436238</v>
       </c>
       <c r="N100">
-        <v>45577.69667</v>
+        <v>26637.0573480246</v>
       </c>
       <c r="O100">
-        <v>45577.69667</v>
+        <v>45577.6966664176</v>
       </c>
       <c r="P100">
-        <v>45577.69667</v>
+        <v>45577.7</v>
       </c>
       <c r="Q100">
-        <v>45577.69667</v>
+        <v>47921.5962564591</v>
       </c>
       <c r="R100">
-        <v>45577.69667</v>
+        <v>50386.0306195151</v>
       </c>
       <c r="S100">
-        <v>45577.69667</v>
+        <v>52977.201928004</v>
       </c>
       <c r="T100">
-        <v>45577.69667</v>
+        <v>55701.6278046219</v>
       </c>
       <c r="U100">
-        <v>45577.69667</v>
+        <v>58566.1610498258</v>
       </c>
       <c r="V100">
-        <v>45577.69667</v>
+        <v>61578.0068788139</v>
       </c>
       <c r="W100">
-        <v>45577.69667</v>
+        <v>64744.7410449404</v>
       </c>
       <c r="X100">
-        <v>45577.69667</v>
+        <v>68074.3288951533</v>
       </c>
       <c r="Y100">
-        <v>45577.69667</v>
+        <v>71575.1454053834</v>
       </c>
       <c r="Z100">
-        <v>45577.69667</v>
+        <v>75255.9962462813</v>
       </c>
       <c r="AA100">
-        <v>45577.69667</v>
+        <v>79126.13993228909</v>
       </c>
       <c r="AB100">
-        <v>45577.69667</v>
+        <v>83195.31110975859</v>
       </c>
       <c r="AC100">
-        <v>45577.69667</v>
+        <v>87473.7450426932</v>
       </c>
       <c r="AD100">
-        <v>45577.69667</v>
+        <v>91972.2033577031</v>
       </c>
       <c r="AE100">
-        <v>45577.69667</v>
+        <v>96702.0011129302</v>
       </c>
       <c r="AF100">
-        <v>45577.69667</v>
+        <v>101675.03525903</v>
       </c>
       <c r="AG100">
-        <v>45577.69667</v>
+        <v>106903.8145638</v>
       </c>
       <c r="AH100">
-        <v>45577.69667</v>
+        <v>112401.491075718</v>
       </c>
       <c r="AI100">
-        <v>45577.69667</v>
+        <v>118181.893205549</v>
       </c>
       <c r="AJ100">
-        <v>45577.69667</v>
+        <v>124259.560509203</v>
       </c>
       <c r="AK100">
-        <v>45577.69667</v>
+        <v>130649.780259361</v>
       </c>
       <c r="AL100">
-        <v>45577.69667</v>
+        <v>137368.625897845</v>
       </c>
       <c r="AM100">
-        <v>45577.69667</v>
+        <v>144432.997465451</v>
       </c>
       <c r="AN100">
-        <v>45577.69667</v>
+        <v>151860.664110947</v>
       </c>
       <c r="AO100">
-        <v>45577.69667</v>
+        <v>159670.308786151</v>
       </c>
       <c r="AP100">
-        <v>45577.69667</v>
+        <v>167881.575239516</v>
       </c>
       <c r="AQ100">
-        <v>45577.69667</v>
+        <v>176515.117426427</v>
       </c>
       <c r="AR100">
-        <v>45577.69667</v>
+        <v>185592.651460488</v>
       </c>
       <c r="AS100">
-        <v>45577.69667</v>
+        <v>195137.010236481</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>1035318.004</v>
+        <v>972671.4157053831</v>
       </c>
       <c r="K101">
-        <v>1035318.004</v>
+        <v>984624.644550232</v>
       </c>
       <c r="L101">
-        <v>1035318.004</v>
+        <v>1007336.73713699</v>
       </c>
       <c r="M101">
-        <v>1035318.004</v>
+        <v>1050252.53767421</v>
       </c>
       <c r="N101">
-        <v>1035318.004</v>
+        <v>1025396.21661986</v>
       </c>
       <c r="O101">
-        <v>1035318.004</v>
+        <v>1035318.00405061</v>
       </c>
       <c r="P101">
-        <v>1035318.004</v>
+        <v>1035318</v>
       </c>
       <c r="Q101">
-        <v>1035318.004</v>
+        <v>1073063.72562282</v>
       </c>
       <c r="R101">
-        <v>1035318.004</v>
+        <v>1112185.58862836</v>
       </c>
       <c r="S101">
-        <v>1035318.004</v>
+        <v>1152733.76036885</v>
       </c>
       <c r="T101">
-        <v>1035318.004</v>
+        <v>1194760.24134865</v>
       </c>
       <c r="U101">
-        <v>1035318.004</v>
+        <v>1238318.92791163</v>
       </c>
       <c r="V101">
-        <v>1035318.004</v>
+        <v>1283465.68135984</v>
       </c>
       <c r="W101">
-        <v>1035318.004</v>
+        <v>1330258.39959223</v>
       </c>
       <c r="X101">
-        <v>1035318.004</v>
+        <v>1378757.09135502</v>
       </c>
       <c r="Y101">
-        <v>1035318.004</v>
+        <v>1429023.95319921</v>
       </c>
       <c r="Z101">
-        <v>1035318.004</v>
+        <v>1481123.44924381</v>
       </c>
       <c r="AA101">
-        <v>1035318.004</v>
+        <v>1535122.393847</v>
       </c>
       <c r="AB101">
-        <v>1035318.004</v>
+        <v>1591090.03729143</v>
       </c>
       <c r="AC101">
-        <v>1035318.004</v>
+        <v>1649098.15459337</v>
       </c>
       <c r="AD101">
-        <v>1035318.004</v>
+        <v>1709221.1375497</v>
       </c>
       <c r="AE101">
-        <v>1035318.004</v>
+        <v>1771536.09014077</v>
       </c>
       <c r="AF101">
-        <v>1035318.004</v>
+        <v>1836122.92741143</v>
       </c>
       <c r="AG101">
-        <v>1035318.004</v>
+        <v>1903064.4779571</v>
       </c>
       <c r="AH101">
-        <v>1035318.004</v>
+        <v>1972446.59014631</v>
       </c>
       <c r="AI101">
-        <v>1035318.004</v>
+        <v>2044358.24221585</v>
       </c>
       <c r="AJ101">
-        <v>1035318.004</v>
+        <v>2118891.65637985</v>
       </c>
       <c r="AK101">
-        <v>1035318.004</v>
+        <v>2196142.41709897</v>
       </c>
       <c r="AL101">
-        <v>1035318.004</v>
+        <v>2276209.59366159</v>
       </c>
       <c r="AM101">
-        <v>1035318.004</v>
+        <v>2359195.86723395</v>
       </c>
       <c r="AN101">
-        <v>1035318.004</v>
+        <v>2445207.66254236</v>
       </c>
       <c r="AO101">
-        <v>1035318.004</v>
+        <v>2534355.28435629</v>
       </c>
       <c r="AP101">
-        <v>1035318.004</v>
+        <v>2626753.05894734</v>
       </c>
       <c r="AQ101">
-        <v>1035318.004</v>
+        <v>2722519.48070562</v>
       </c>
       <c r="AR101">
-        <v>1035318.004</v>
+        <v>2821777.36410136</v>
       </c>
       <c r="AS101">
-        <v>1035318.004</v>
+        <v>2924654.00118683</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>36630.385957661</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>19644.0733181737</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>72266.6990286061</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>75731.84666051219</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>86736.58080400901</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>77407.4703003959</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>77407.47</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>88597.24144518111</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>101404.569761752</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>116063.283696349</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>132841.013516732</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>152044.077249449</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>174023.073256098</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>199179.28125416</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>227971.988648543</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>260926.875933719</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>298645.614262248</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>341816.850406515</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>391228.779670713</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>447783.536301983</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>512513.664132465</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>586600.9681636459</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>671398.091274286</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>768453.209986861</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>879538.300173489</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>1006681.48876013</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>1152204.08208762</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>1318762.94697192</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>1509399.01823208</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>1727592.81830846</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>1977328.00261571</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>2263164.09080495</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>2590319.71181993</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>2964767.88258707</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>3393345.05988227</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>3883875.95637994</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>778032.3353</v>
+        <v>887100.625428757</v>
       </c>
       <c r="K103">
-        <v>778032.3353</v>
+        <v>760069.013641543</v>
       </c>
       <c r="L103">
-        <v>778032.3353</v>
+        <v>828825.1093487</v>
       </c>
       <c r="M103">
-        <v>778032.3353</v>
+        <v>796529.410198479</v>
       </c>
       <c r="N103">
-        <v>778032.3353</v>
+        <v>806580.133683963</v>
       </c>
       <c r="O103">
-        <v>778032.3353</v>
+        <v>778032.335293796</v>
       </c>
       <c r="P103">
-        <v>778032.3353</v>
+        <v>778032.3</v>
       </c>
       <c r="Q103">
-        <v>778032.3353</v>
+        <v>789622.522687932</v>
       </c>
       <c r="R103">
-        <v>778032.3353</v>
+        <v>801385.4030688111</v>
       </c>
       <c r="S103">
-        <v>778032.3353</v>
+        <v>813323.513196662</v>
       </c>
       <c r="T103">
-        <v>778032.3353</v>
+        <v>825439.463440991</v>
       </c>
       <c r="U103">
-        <v>778032.3353</v>
+        <v>837735.9030575569</v>
       </c>
       <c r="V103">
-        <v>778032.3353</v>
+        <v>850215.520767661</v>
       </c>
       <c r="W103">
-        <v>778032.3353</v>
+        <v>862881.045346054</v>
       </c>
       <c r="X103">
-        <v>778032.3353</v>
+        <v>875735.2462176071</v>
       </c>
       <c r="Y103">
-        <v>778032.3353</v>
+        <v>888780.934062871</v>
       </c>
       <c r="Z103">
-        <v>778032.3353</v>
+        <v>902020.961432656</v>
       </c>
       <c r="AA103">
-        <v>778032.3353</v>
+        <v>915458.2233717639</v>
       </c>
       <c r="AB103">
-        <v>778032.3353</v>
+        <v>929095.658052018</v>
       </c>
       <c r="AC103">
-        <v>778032.3353</v>
+        <v>942936.247414713</v>
       </c>
       <c r="AD103">
-        <v>778032.3353</v>
+        <v>956983.017822651</v>
       </c>
       <c r="AE103">
-        <v>778032.3353</v>
+        <v>971239.040721872</v>
       </c>
       <c r="AF103">
-        <v>778032.3353</v>
+        <v>985707.433313259</v>
       </c>
       <c r="AG103">
-        <v>778032.3353</v>
+        <v>1000391.35923414</v>
       </c>
       <c r="AH103">
-        <v>778032.3353</v>
+        <v>1015294.02925003</v>
       </c>
       <c r="AI103">
-        <v>778032.3353</v>
+        <v>1030418.70195672</v>
       </c>
       <c r="AJ103">
-        <v>778032.3353</v>
+        <v>1045768.68449278</v>
       </c>
       <c r="AK103">
-        <v>778032.3353</v>
+        <v>1061347.33326268</v>
       </c>
       <c r="AL103">
-        <v>778032.3353</v>
+        <v>1077158.05467072</v>
       </c>
       <c r="AM103">
-        <v>778032.3353</v>
+        <v>1093204.30586586</v>
       </c>
       <c r="AN103">
-        <v>778032.3353</v>
+        <v>1109489.59549766</v>
       </c>
       <c r="AO103">
-        <v>778032.3353</v>
+        <v>1126017.48448345</v>
       </c>
       <c r="AP103">
-        <v>778032.3353</v>
+        <v>1142791.586787</v>
       </c>
       <c r="AQ103">
-        <v>778032.3353</v>
+        <v>1159815.57020872</v>
       </c>
       <c r="AR103">
-        <v>778032.3353</v>
+        <v>1177093.15718762</v>
       </c>
       <c r="AS103">
-        <v>778032.3353</v>
+        <v>1194628.12561534</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>379341.7065</v>
+        <v>381036.874589203</v>
       </c>
       <c r="K104">
-        <v>379341.7065</v>
+        <v>390797.185407436</v>
       </c>
       <c r="L104">
-        <v>379341.7065</v>
+        <v>377004.947040244</v>
       </c>
       <c r="M104">
-        <v>379341.7065</v>
+        <v>366201.743292061</v>
       </c>
       <c r="N104">
-        <v>379341.7065</v>
+        <v>390249.154506288</v>
       </c>
       <c r="O104">
-        <v>379341.7065</v>
+        <v>379341.706513841</v>
       </c>
       <c r="P104">
-        <v>379341.7065</v>
+        <v>379341.7</v>
       </c>
       <c r="Q104">
-        <v>379341.7065</v>
+        <v>399355.355861375</v>
       </c>
       <c r="R104">
-        <v>379341.7065</v>
+        <v>420424.910457155</v>
       </c>
       <c r="S104">
-        <v>379341.7065</v>
+        <v>442606.071857125</v>
       </c>
       <c r="T104">
-        <v>379341.7065</v>
+        <v>465957.487228288</v>
       </c>
       <c r="U104">
-        <v>379341.7065</v>
+        <v>490540.897898451</v>
       </c>
       <c r="V104">
-        <v>379341.7065</v>
+        <v>516421.30260078</v>
       </c>
       <c r="W104">
-        <v>379341.7065</v>
+        <v>543667.129330968</v>
       </c>
       <c r="X104">
-        <v>379341.7065</v>
+        <v>572350.4162714001</v>
       </c>
       <c r="Y104">
-        <v>379341.7065</v>
+        <v>602547.0022606821</v>
       </c>
       <c r="Z104">
-        <v>379341.7065</v>
+        <v>634336.7273121279</v>
       </c>
       <c r="AA104">
-        <v>379341.7065</v>
+        <v>667803.643711394</v>
       </c>
       <c r="AB104">
-        <v>379341.7065</v>
+        <v>703036.238251387</v>
       </c>
       <c r="AC104">
-        <v>379341.7065</v>
+        <v>740127.666192051</v>
       </c>
       <c r="AD104">
-        <v>379341.7065</v>
+        <v>779175.997563608</v>
       </c>
       <c r="AE104">
-        <v>379341.7065</v>
+        <v>820284.476464508</v>
       </c>
       <c r="AF104">
-        <v>379341.7065</v>
+        <v>863561.7940396341</v>
       </c>
       <c r="AG104">
-        <v>379341.7065</v>
+        <v>909122.3758605639</v>
       </c>
       <c r="AH104">
-        <v>379341.7065</v>
+        <v>957086.684467681</v>
       </c>
       <c r="AI104">
-        <v>379341.7065</v>
+        <v>1007581.5378741</v>
       </c>
       <c r="AJ104">
-        <v>379341.7065</v>
+        <v>1060740.44487348</v>
       </c>
       <c r="AK104">
-        <v>379341.7065</v>
+        <v>1116703.95803836</v>
       </c>
       <c r="AL104">
-        <v>379341.7065</v>
+        <v>1175620.04534227</v>
       </c>
       <c r="AM104">
-        <v>379341.7065</v>
+        <v>1237644.48138823</v>
       </c>
       <c r="AN104">
-        <v>379341.7065</v>
+        <v>1302941.25927801</v>
       </c>
       <c r="AO104">
-        <v>379341.7065</v>
+        <v>1371683.02421125</v>
       </c>
       <c r="AP104">
-        <v>379341.7065</v>
+        <v>1444051.5299607</v>
       </c>
       <c r="AQ104">
-        <v>379341.7065</v>
+        <v>1520238.11943062</v>
       </c>
       <c r="AR104">
-        <v>379341.7065</v>
+        <v>1600444.23056902</v>
       </c>
       <c r="AS104">
-        <v>379341.7065</v>
+        <v>1684881.9289711</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>12685.94197</v>
+        <v>14760.6623688479</v>
       </c>
       <c r="K111">
-        <v>12685.94197</v>
+        <v>12790.2508904471</v>
       </c>
       <c r="L111">
-        <v>12685.94197</v>
+        <v>13754.9850669999</v>
       </c>
       <c r="M111">
-        <v>12685.94197</v>
+        <v>13434.2003067164</v>
       </c>
       <c r="N111">
-        <v>12685.94197</v>
+        <v>13668.5596829101</v>
       </c>
       <c r="O111">
-        <v>12685.94197</v>
+        <v>12685.9419671159</v>
       </c>
       <c r="P111">
-        <v>12685.94197</v>
+        <v>12685.94</v>
       </c>
       <c r="Q111">
-        <v>12685.94197</v>
+        <v>12636.6350133479</v>
       </c>
       <c r="R111">
-        <v>12685.94197</v>
+        <v>12587.5216547272</v>
       </c>
       <c r="S111">
-        <v>12685.94197</v>
+        <v>12538.5991793593</v>
       </c>
       <c r="T111">
-        <v>12685.94197</v>
+        <v>12489.8668453601</v>
       </c>
       <c r="U111">
-        <v>12685.94197</v>
+        <v>12441.3239137289</v>
       </c>
       <c r="V111">
-        <v>12685.94197</v>
+        <v>12392.9696483374</v>
       </c>
       <c r="W111">
-        <v>12685.94197</v>
+        <v>12344.8033159181</v>
       </c>
       <c r="X111">
-        <v>12685.94197</v>
+        <v>12296.8241860536</v>
       </c>
       <c r="Y111">
-        <v>12685.94197</v>
+        <v>12249.0315311651</v>
       </c>
       <c r="Z111">
-        <v>12685.94197</v>
+        <v>12201.4246265017</v>
       </c>
       <c r="AA111">
-        <v>12685.94197</v>
+        <v>12154.0027501294</v>
       </c>
       <c r="AB111">
-        <v>12685.94197</v>
+        <v>12106.76518292</v>
       </c>
       <c r="AC111">
-        <v>12685.94197</v>
+        <v>12059.7112085402</v>
       </c>
       <c r="AD111">
-        <v>12685.94197</v>
+        <v>12012.8401134408</v>
       </c>
       <c r="AE111">
-        <v>12685.94197</v>
+        <v>11966.1511868459</v>
       </c>
       <c r="AF111">
-        <v>12685.94197</v>
+        <v>11919.6437207422</v>
       </c>
       <c r="AG111">
-        <v>12685.94197</v>
+        <v>11873.3170098679</v>
       </c>
       <c r="AH111">
-        <v>12685.94197</v>
+        <v>11827.1703517024</v>
       </c>
       <c r="AI111">
-        <v>12685.94197</v>
+        <v>11781.2030464556</v>
       </c>
       <c r="AJ111">
-        <v>12685.94197</v>
+        <v>11735.4143970571</v>
       </c>
       <c r="AK111">
-        <v>12685.94197</v>
+        <v>11689.8037091456</v>
       </c>
       <c r="AL111">
-        <v>12685.94197</v>
+        <v>11644.3702910587</v>
       </c>
       <c r="AM111">
-        <v>12685.94197</v>
+        <v>11599.1134538222</v>
       </c>
       <c r="AN111">
-        <v>12685.94197</v>
+        <v>11554.0325111394</v>
       </c>
       <c r="AO111">
-        <v>12685.94197</v>
+        <v>11509.1267793813</v>
       </c>
       <c r="AP111">
-        <v>12685.94197</v>
+        <v>11464.3955775757</v>
       </c>
       <c r="AQ111">
-        <v>12685.94197</v>
+        <v>11419.8382273969</v>
       </c>
       <c r="AR111">
-        <v>12685.94197</v>
+        <v>11375.4540531559</v>
       </c>
       <c r="AS111">
-        <v>12685.94197</v>
+        <v>11331.2423817896</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>33385.15626</v>
+        <v>34629.736640591</v>
       </c>
       <c r="K112">
-        <v>33385.15626</v>
+        <v>35824.4813963268</v>
       </c>
       <c r="L112">
-        <v>33385.15626</v>
+        <v>35324.7326178198</v>
       </c>
       <c r="M112">
-        <v>33385.15626</v>
+        <v>33199.8234809784</v>
       </c>
       <c r="N112">
-        <v>33385.15626</v>
+        <v>35407.0341028948</v>
       </c>
       <c r="O112">
-        <v>33385.15626</v>
+        <v>33385.1562612783</v>
       </c>
       <c r="P112">
-        <v>33385.15626</v>
+        <v>33385.16</v>
       </c>
       <c r="Q112">
-        <v>33385.15626</v>
+        <v>33340.0137322168</v>
       </c>
       <c r="R112">
-        <v>33385.15626</v>
+        <v>33294.9285150769</v>
       </c>
       <c r="S112">
-        <v>33385.15626</v>
+        <v>33249.9042660225</v>
       </c>
       <c r="T112">
-        <v>33385.15626</v>
+        <v>33204.9409026071</v>
       </c>
       <c r="U112">
-        <v>33385.15626</v>
+        <v>33160.0383424962</v>
       </c>
       <c r="V112">
-        <v>33385.15626</v>
+        <v>33115.1965034662</v>
       </c>
       <c r="W112">
-        <v>33385.15626</v>
+        <v>33070.4153034049</v>
       </c>
       <c r="X112">
-        <v>33385.15626</v>
+        <v>33025.6946603111</v>
       </c>
       <c r="Y112">
-        <v>33385.15626</v>
+        <v>32981.0344922946</v>
       </c>
       <c r="Z112">
-        <v>33385.15626</v>
+        <v>32936.4347175756</v>
       </c>
       <c r="AA112">
-        <v>33385.15626</v>
+        <v>32891.8952544854</v>
       </c>
       <c r="AB112">
-        <v>33385.15626</v>
+        <v>32847.4160214652</v>
       </c>
       <c r="AC112">
-        <v>33385.15626</v>
+        <v>32802.9969370669</v>
       </c>
       <c r="AD112">
-        <v>33385.15626</v>
+        <v>32758.6379199524</v>
       </c>
       <c r="AE112">
-        <v>33385.15626</v>
+        <v>32714.3388888935</v>
       </c>
       <c r="AF112">
-        <v>33385.15626</v>
+        <v>32670.0997627719</v>
       </c>
       <c r="AG112">
-        <v>33385.15626</v>
+        <v>32625.9204605792</v>
       </c>
       <c r="AH112">
-        <v>33385.15626</v>
+        <v>32581.8009014162</v>
       </c>
       <c r="AI112">
-        <v>33385.15626</v>
+        <v>32537.7410044933</v>
       </c>
       <c r="AJ112">
-        <v>33385.15626</v>
+        <v>32493.7406891302</v>
       </c>
       <c r="AK112">
-        <v>33385.15626</v>
+        <v>32449.7998747555</v>
       </c>
       <c r="AL112">
-        <v>33385.15626</v>
+        <v>32405.918480907</v>
       </c>
       <c r="AM112">
-        <v>33385.15626</v>
+        <v>32362.0964272311</v>
       </c>
       <c r="AN112">
-        <v>33385.15626</v>
+        <v>32318.3336334829</v>
       </c>
       <c r="AO112">
-        <v>33385.15626</v>
+        <v>32274.6300195262</v>
       </c>
       <c r="AP112">
-        <v>33385.15626</v>
+        <v>32230.9855053329</v>
       </c>
       <c r="AQ112">
-        <v>33385.15626</v>
+        <v>32187.4000109834</v>
       </c>
       <c r="AR112">
-        <v>33385.15626</v>
+        <v>32143.8734566658</v>
       </c>
       <c r="AS112">
-        <v>33385.15626</v>
+        <v>32100.4057626765</v>
       </c>
     </row>
     <row r="113" spans="1:45">
